--- a/Data/EC/NIT-9009313226.xlsx
+++ b/Data/EC/NIT-9009313226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC2CA8C2-4D23-45CE-A2D6-1CB52F01CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80F02C2-5AB0-43FB-A783-ABA7C1B8EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5337540-34CA-4BB0-B33A-3BF7212CEA0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C64A82DA-71B9-4321-A063-F6B81E858A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,109 +71,109 @@
     <t>AUGUSTO ALFONSO VILLALBA SIERRA</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
     <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872EEF7F-56A5-C84D-5C42-D2DE21977B2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F368AB-A237-7114-BCFB-FC35CABEC617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,28 +938,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0AA203-449B-4DB6-A129-979C54F5043C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942A6C37-32EF-4D36-AD42-287A9E1BC1DC}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -972,7 +972,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -983,7 +983,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -994,7 +994,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1005,8 +1005,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1021,8 +1021,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1037,8 +1037,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1053,8 +1053,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1125,7 +1125,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1148,7 +1148,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1171,7 +1171,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>737717</v>
@@ -1194,7 +1194,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>737717</v>
@@ -1217,7 +1217,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>737717</v>
@@ -1240,7 +1240,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>737717</v>
@@ -1263,7 +1263,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>737717</v>
@@ -1286,7 +1286,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>737717</v>
@@ -1309,7 +1309,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>737717</v>
@@ -1332,7 +1332,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>737717</v>
@@ -1355,7 +1355,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>737717</v>
@@ -1378,7 +1378,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>737717</v>
@@ -1401,7 +1401,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>737717</v>
@@ -1424,7 +1424,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>737717</v>
@@ -1447,7 +1447,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>737717</v>
@@ -1470,7 +1470,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
         <v>737717</v>
@@ -1562,7 +1562,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
         <v>737717</v>
@@ -1585,7 +1585,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
         <v>737717</v>
@@ -1608,7 +1608,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1631,7 +1631,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
         <v>737717</v>
@@ -1654,7 +1654,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
         <v>737717</v>
@@ -1677,7 +1677,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
         <v>737717</v>
@@ -1700,7 +1700,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
         <v>737717</v>
@@ -1723,7 +1723,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
         <v>737717</v>
@@ -1746,7 +1746,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
         <v>737717</v>
@@ -1769,7 +1769,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
         <v>737717</v>
@@ -1792,7 +1792,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
         <v>737717</v>
@@ -1815,7 +1815,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
         <v>737717</v>
@@ -1838,7 +1838,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
         <v>737717</v>
@@ -1861,7 +1861,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
         <v>737717</v>
@@ -1884,7 +1884,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="21" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="24">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="24">
         <v>737717</v>
@@ -1907,7 +1907,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="32" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="32" t="s">
         <v>54</v>
       </c>

--- a/Data/EC/NIT-9009313226.xlsx
+++ b/Data/EC/NIT-9009313226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80F02C2-5AB0-43FB-A783-ABA7C1B8EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42CDE419-7EEB-41AA-AA6A-6668D60286DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C64A82DA-71B9-4321-A063-F6B81E858A27}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{153D5172-C4CE-4CB7-8CFA-750FE2EBDD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,109 +71,109 @@
     <t>AUGUSTO ALFONSO VILLALBA SIERRA</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,7 +272,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -285,9 +287,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -487,23 +487,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,10 +531,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,13 +572,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F368AB-A237-7114-BCFB-FC35CABEC617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801FD61C-AE06-2ABF-A184-92B2228F1C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -609,7 +609,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,28 +938,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942A6C37-32EF-4D36-AD42-287A9E1BC1DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B0855B-9C96-4639-A2E4-B65A33103182}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -972,7 +972,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -983,7 +983,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -994,7 +994,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1005,8 +1005,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1021,8 +1021,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1037,8 +1037,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1053,8 +1053,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1116,16 +1116,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1139,16 +1139,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1162,16 +1162,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1185,16 +1185,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1208,16 +1208,16 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1231,16 +1231,16 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1254,16 +1254,16 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1277,16 +1277,16 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1300,16 +1300,16 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1323,16 +1323,16 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1369,16 +1369,16 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1392,16 +1392,16 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1415,16 +1415,16 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1438,16 +1438,16 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1461,16 +1461,16 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1487,13 +1487,13 @@
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1510,13 +1510,13 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1533,13 +1533,13 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1553,16 +1553,16 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1576,16 +1576,16 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1599,16 +1599,16 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1622,16 +1622,16 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1645,16 +1645,16 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1668,16 +1668,16 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1691,16 +1691,16 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1714,16 +1714,16 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1737,16 +1737,16 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1760,16 +1760,16 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1783,16 +1783,16 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1806,16 +1806,16 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1829,16 +1829,16 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1852,16 +1852,16 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1875,16 +1875,16 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="21" t="s">
         <v>8</v>
       </c>
@@ -1898,16 +1898,16 @@
         <v>45</v>
       </c>
       <c r="F50" s="24">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="32" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="32" t="s">
         <v>54</v>
       </c>

--- a/Data/EC/NIT-9009313226.xlsx
+++ b/Data/EC/NIT-9009313226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42CDE419-7EEB-41AA-AA6A-6668D60286DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29E85E20-A7A3-41DB-93E7-418BF8E6AC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{153D5172-C4CE-4CB7-8CFA-750FE2EBDD94}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{836FA7AD-2AE7-480A-8F0E-4D931BC2C1FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,9 +272,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -287,7 +285,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,29 +481,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,19 +522,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,13 +578,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189350</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -587,7 +593,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801FD61C-AE06-2ABF-A184-92B2228F1C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A130584-EB42-7598-5678-C2B429D507E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -609,7 +615,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680600" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,80 +944,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B0855B-9C96-4639-A2E4-B65A33103182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB781EA-4384-41CB-B81B-4B802187A2E8}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1021,13 +1027,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009313226</v>
       </c>
@@ -1037,13 +1043,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1065875</v>
       </c>
@@ -1053,8 +1059,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1079,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1112,20 +1118,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>29509</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1135,20 +1141,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>29509</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,20 +1164,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>29509</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1181,20 +1187,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>29509</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1204,20 +1210,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>29509</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,20 +1233,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>29509</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,20 +1256,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>29509</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,20 +1279,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>29509</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,20 +1302,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>29509</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,20 +1325,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>29509</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1342,20 +1348,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>29509</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,20 +1371,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>29509</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,20 +1394,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>29509</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,20 +1417,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>29509</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,20 +1440,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>29509</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1457,20 +1463,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>29509</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1480,20 +1486,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>31249</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1503,20 +1509,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>31249</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1526,20 +1532,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>31249</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1549,20 +1555,20 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>31249</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1572,20 +1578,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>31249</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1595,20 +1601,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>31249</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1618,20 +1624,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>31249</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1641,20 +1647,20 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>31249</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1664,20 +1670,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>31249</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1687,20 +1693,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>31249</v>
       </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1710,20 +1716,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>31249</v>
       </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1733,20 +1739,20 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>31249</v>
       </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1756,20 +1762,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>31249</v>
       </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1779,20 +1785,20 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>31249</v>
       </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1802,20 +1808,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>31249</v>
       </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1825,20 +1831,20 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>31249</v>
       </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1848,20 +1854,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>31249</v>
       </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1871,58 +1877,58 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>31249</v>
       </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="22" t="s">
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="26">
         <v>31249</v>
       </c>
-      <c r="G50" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="32" t="s">
+      <c r="G50" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="32"/>
+      <c r="C55" s="34"/>
       <c r="H55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="32" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="32"/>
+      <c r="C56" s="34"/>
       <c r="H56" s="1" t="s">
         <v>56</v>
       </c>
